--- a/biology/Neurosciences/Current_Psychology_Letters/Current_Psychology_Letters.xlsx
+++ b/biology/Neurosciences/Current_Psychology_Letters/Current_Psychology_Letters.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Current Psychology Letters est une revue scientifique publiant des contributions dans tous les domaines de la psychologie cognitive expérimentale, incluant la psychologie cognitive, la psycholinguistique, les neurosciences cognitives, la cognition sociale, le développement cognitif, la neuropsychologie cognitive et la cognition comparative.
